--- a/documents/planning/normalisation/Normalisation.xlsx
+++ b/documents/planning/normalisation/Normalisation.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisation" sheetId="1" r:id="rId1"/>
     <sheet name="LGM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
   <si>
     <t>voornaam</t>
   </si>
@@ -163,12 +163,6 @@
     <t>*=&gt; sensor</t>
   </si>
   <si>
-    <t>*=&gt; chauffeur</t>
-  </si>
-  <si>
-    <t>*=&gt; bestemming</t>
-  </si>
-  <si>
     <t>SENSOR</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>gsmnr</t>
   </si>
   <si>
-    <t>*=&gt; gemeente</t>
-  </si>
-  <si>
     <t>*=&gt; product</t>
   </si>
   <si>
@@ -205,21 +196,12 @@
     <t>OVERSCHRIJDINGEN_PER_CARGO</t>
   </si>
   <si>
-    <t>*=&gt; variabele</t>
-  </si>
-  <si>
     <t>Stabilisaties_per_cargo_id</t>
   </si>
   <si>
-    <t>*=&gt; overschrijdingen_per_cargo</t>
-  </si>
-  <si>
     <t>contactpersoon_id</t>
   </si>
   <si>
-    <t>*=&gt; contactpersoon</t>
-  </si>
-  <si>
     <t>CONTACTPERSOON</t>
   </si>
   <si>
@@ -262,9 +244,6 @@
     <t>clearance_level</t>
   </si>
   <si>
-    <t>*=&gt; werknemer_id</t>
-  </si>
-  <si>
     <t>WERKNEMER</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>werknemer_uitgang</t>
   </si>
   <si>
-    <t>*=&gt; Werknemer</t>
-  </si>
-  <si>
     <t>datum_uit_dienst</t>
   </si>
   <si>
@@ -365,6 +341,135 @@
   </si>
   <si>
     <t>FK(Overschrijdingen_per_cargo)</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>*=&gt; employee</t>
+  </si>
+  <si>
+    <t>*=&gt; destination</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>housenr</t>
+  </si>
+  <si>
+    <t>date_employment</t>
+  </si>
+  <si>
+    <t>telephone_number</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>date_resignation</t>
+  </si>
+  <si>
+    <t>sensor_name</t>
+  </si>
+  <si>
+    <t>werknemer_start</t>
+  </si>
+  <si>
+    <t>werknemer_stop</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>border_value_variable</t>
+  </si>
+  <si>
+    <t>border_value_number</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>variable_id</t>
+  </si>
+  <si>
+    <t>*=&gt; variable</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>destination_id</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+  </si>
+  <si>
+    <t>stabilisations_per_cargo_id</t>
+  </si>
+  <si>
+    <t>*=&gt; city</t>
+  </si>
+  <si>
+    <t>*=&gt; contact</t>
+  </si>
+  <si>
+    <t>exceedings_per_cargo_id</t>
+  </si>
+  <si>
+    <t>exceedings_PER_CARGO</t>
+  </si>
+  <si>
+    <t>*=&gt; exceedings_per_cargo</t>
+  </si>
+  <si>
+    <t>exceedings_per_cargo id</t>
   </si>
 </sst>
 </file>
@@ -436,12 +541,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -748,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,14 +879,14 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -786,17 +895,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -807,72 +916,72 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -880,13 +989,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -894,46 +1003,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -941,21 +1050,21 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -963,78 +1072,78 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1045,89 +1154,89 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1136,23 +1245,23 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>5</v>
+      <c r="B32" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>24</v>
+      <c r="B33" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,28 +1307,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1344,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,12 +1352,12 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,44 +1373,44 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,31 +1450,31 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,23 +1498,23 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,7 +1522,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,31 +1538,31 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,12 +1570,12 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,12 +1607,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,15 +1628,15 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,28 +1660,28 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,12 +1689,12 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,12 +1718,12 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1622,7 +1731,7 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,20 +1755,20 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,7 +1792,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,28 +1800,28 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,28 +1845,28 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">

--- a/documents/planning/normalisation/Normalisation.xlsx
+++ b/documents/planning/normalisation/Normalisation.xlsx
@@ -400,12 +400,6 @@
     <t>sensor_name</t>
   </si>
   <si>
-    <t>werknemer_start</t>
-  </si>
-  <si>
-    <t>werknemer_stop</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -470,6 +464,12 @@
   </si>
   <si>
     <t>exceedings_per_cargo id</t>
+  </si>
+  <si>
+    <t>employee_start</t>
+  </si>
+  <si>
+    <t>employee_stop</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
         <v>98</v>
@@ -962,7 +962,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -973,10 +973,10 @@
         <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -1023,7 +1023,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>96</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
@@ -1042,7 +1042,7 @@
         <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>43</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>50</v>
@@ -1118,10 +1118,10 @@
         <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,16 +1129,16 @@
         <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>50</v>
@@ -1185,7 +1185,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/documents/planning/normalisation/Normalisation.xlsx
+++ b/documents/planning/normalisation/Normalisation.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="130">
   <si>
     <t>voornaam</t>
   </si>
@@ -403,12 +403,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>border_value_variable</t>
-  </si>
-  <si>
-    <t>border_value_number</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>exceedings_per_cargo_id</t>
   </si>
   <si>
-    <t>exceedings_PER_CARGO</t>
-  </si>
-  <si>
     <t>*=&gt; exceedings_per_cargo</t>
   </si>
   <si>
@@ -470,6 +461,18 @@
   </si>
   <si>
     <t>employee_stop</t>
+  </si>
+  <si>
+    <t>border_value</t>
+  </si>
+  <si>
+    <t>BORDER_PER_PRODUCT</t>
+  </si>
+  <si>
+    <t>STABILISATIONS_PER_CARGO</t>
+  </si>
+  <si>
+    <t>EXCEEDINGS_PER_CARGO</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +889,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -905,7 +908,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -937,7 +940,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -948,7 +951,7 @@
         <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
         <v>98</v>
@@ -956,13 +959,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
         <v>99</v>
@@ -973,10 +976,10 @@
         <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -994,8 +997,11 @@
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1011,8 +1017,14 @@
       <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -1025,13 +1037,19 @@
       <c r="D12" t="s">
         <v>105</v>
       </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>106</v>
+      <c r="F13" t="s">
+        <v>126</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
@@ -1041,9 +1059,6 @@
       <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1075,24 +1090,24 @@
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>50</v>
@@ -1118,10 +1133,10 @@
         <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,16 +1144,16 @@
         <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1163,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>50</v>
@@ -1199,7 +1214,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1228,7 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1236,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1231,7 +1246,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1246,7 +1261,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
